--- a/data_year/zb/文化/群众文化机构基本情况/地市级群众文化机构.xlsx
+++ b/data_year/zb/文化/群众文化机构基本情况/地市级群众文化机构.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,220 +528,236 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5554</v>
+        <v>6863</v>
       </c>
       <c r="C2" t="n">
-        <v>2216</v>
+        <v>2331</v>
       </c>
       <c r="D2" t="n">
-        <v>15624</v>
+        <v>16455</v>
       </c>
       <c r="E2" t="n">
-        <v>9476</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>9422</v>
+      </c>
+      <c r="F2" t="n">
+        <v>87.8</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>78256.3</v>
+        <v>105000</v>
       </c>
       <c r="K2" t="n">
-        <v>2427</v>
+        <v>4473</v>
       </c>
       <c r="L2" t="n">
-        <v>8.25808</v>
+        <v>10.8</v>
       </c>
       <c r="M2" t="n">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="N2" t="n">
-        <v>1225</v>
+        <v>1372</v>
       </c>
       <c r="O2" t="n">
-        <v>12075</v>
+        <v>17898</v>
       </c>
       <c r="P2" t="n">
-        <v>33.7</v>
+        <v>28.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>812</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>760</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9563</v>
+      </c>
       <c r="S2" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5420</v>
+        <v>3860</v>
       </c>
       <c r="C3" t="n">
-        <v>2169</v>
+        <v>2519</v>
       </c>
       <c r="D3" t="n">
-        <v>13558</v>
+        <v>23789</v>
       </c>
       <c r="E3" t="n">
-        <v>9123</v>
+        <v>9651</v>
       </c>
       <c r="F3" t="n">
-        <v>63.847</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>140.43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2575</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>745.14</v>
+      </c>
       <c r="J3" t="n">
-        <v>91500</v>
+        <v>128020.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3377</v>
+        <v>4490</v>
       </c>
       <c r="L3" t="n">
-        <v>9.369999999999999</v>
+        <v>13.3322</v>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="N3" t="n">
-        <v>1082</v>
+        <v>2348</v>
       </c>
       <c r="O3" t="n">
-        <v>16678</v>
+        <v>18956</v>
       </c>
       <c r="P3" t="n">
-        <v>29.694</v>
+        <v>42.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>807</v>
+        <v>1137</v>
       </c>
       <c r="R3" t="n">
-        <v>8471</v>
+        <v>192453</v>
       </c>
       <c r="S3" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6863</v>
+        <v>4752</v>
       </c>
       <c r="C4" t="n">
-        <v>2331</v>
+        <v>3114</v>
       </c>
       <c r="D4" t="n">
-        <v>16455</v>
+        <v>27468</v>
       </c>
       <c r="E4" t="n">
-        <v>9422</v>
+        <v>9968</v>
       </c>
       <c r="F4" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>193.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2572.34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>845.3</v>
+      </c>
       <c r="J4" t="n">
-        <v>105000</v>
+        <v>157583.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4473</v>
+        <v>5691</v>
       </c>
       <c r="L4" t="n">
-        <v>10.8</v>
+        <v>16.57034</v>
       </c>
       <c r="M4" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N4" t="n">
-        <v>1372</v>
+        <v>3648</v>
       </c>
       <c r="O4" t="n">
-        <v>17898</v>
+        <v>19618</v>
       </c>
       <c r="P4" t="n">
-        <v>28.9</v>
+        <v>48.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>760</v>
+        <v>1493</v>
       </c>
       <c r="R4" t="n">
-        <v>9563</v>
+        <v>14510</v>
       </c>
       <c r="S4" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3860</v>
+        <v>5693</v>
       </c>
       <c r="C5" t="n">
-        <v>2519</v>
+        <v>3326</v>
       </c>
       <c r="D5" t="n">
-        <v>23789</v>
+        <v>22780</v>
       </c>
       <c r="E5" t="n">
-        <v>9651</v>
+        <v>10349</v>
       </c>
       <c r="F5" t="n">
-        <v>140.43</v>
+        <v>178</v>
       </c>
       <c r="G5" t="n">
-        <v>2575</v>
+        <v>2862</v>
       </c>
       <c r="H5" t="n">
-        <v>45.48</v>
+        <v>77</v>
       </c>
       <c r="I5" t="n">
-        <v>745.14</v>
+        <v>991</v>
       </c>
       <c r="J5" t="n">
-        <v>128020.2</v>
+        <v>187000</v>
       </c>
       <c r="K5" t="n">
-        <v>4490</v>
+        <v>6308</v>
       </c>
       <c r="L5" t="n">
-        <v>13.3322</v>
+        <v>19.76</v>
       </c>
       <c r="M5" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N5" t="n">
-        <v>2348</v>
+        <v>4030</v>
       </c>
       <c r="O5" t="n">
-        <v>18956</v>
+        <v>22022</v>
       </c>
       <c r="P5" t="n">
-        <v>42.76</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="n">
-        <v>1137</v>
+        <v>972</v>
       </c>
       <c r="R5" t="n">
-        <v>192453</v>
+        <v>42830</v>
       </c>
       <c r="S5" t="n">
         <v>79</v>
@@ -750,312 +766,304 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4752</v>
+        <v>8983</v>
       </c>
       <c r="C6" t="n">
-        <v>3114</v>
+        <v>3713</v>
       </c>
       <c r="D6" t="n">
-        <v>27468</v>
+        <v>29322</v>
       </c>
       <c r="E6" t="n">
-        <v>9968</v>
+        <v>10514</v>
       </c>
       <c r="F6" t="n">
-        <v>193.85</v>
+        <v>204.643</v>
       </c>
       <c r="G6" t="n">
-        <v>2572.34</v>
+        <v>3036.44</v>
       </c>
       <c r="H6" t="n">
-        <v>59.99</v>
+        <v>94.61799999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>845.3</v>
+        <v>1045.908</v>
       </c>
       <c r="J6" t="n">
-        <v>157583.4</v>
+        <v>208202.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5691</v>
+        <v>11737</v>
       </c>
       <c r="L6" t="n">
-        <v>16.57034</v>
+        <v>21.79537</v>
       </c>
       <c r="M6" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N6" t="n">
-        <v>3648</v>
+        <v>3955</v>
       </c>
       <c r="O6" t="n">
-        <v>19618</v>
+        <v>62062</v>
       </c>
       <c r="P6" t="n">
-        <v>48.81</v>
+        <v>59.657</v>
       </c>
       <c r="Q6" t="n">
-        <v>1493</v>
+        <v>1061</v>
       </c>
       <c r="R6" t="n">
-        <v>14510</v>
+        <v>11870</v>
       </c>
       <c r="S6" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5693</v>
+        <v>6400</v>
       </c>
       <c r="C7" t="n">
-        <v>3326</v>
+        <v>3800</v>
       </c>
       <c r="D7" t="n">
-        <v>22780</v>
+        <v>37700</v>
       </c>
       <c r="E7" t="n">
-        <v>10349</v>
+        <v>10522</v>
       </c>
       <c r="F7" t="n">
-        <v>178</v>
+        <v>264.014</v>
       </c>
       <c r="G7" t="n">
-        <v>2862</v>
+        <v>3159.557</v>
       </c>
       <c r="H7" t="n">
-        <v>77</v>
+        <v>100.906</v>
       </c>
       <c r="I7" t="n">
-        <v>991</v>
+        <v>1024.866</v>
       </c>
       <c r="J7" t="n">
-        <v>187000</v>
+        <v>244040.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6308</v>
+        <v>10900</v>
       </c>
       <c r="L7" t="n">
-        <v>19.76</v>
+        <v>26.31904</v>
       </c>
       <c r="M7" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N7" t="n">
-        <v>4030</v>
+        <v>4544</v>
       </c>
       <c r="O7" t="n">
-        <v>22022</v>
+        <v>25600</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>62.807</v>
       </c>
       <c r="Q7" t="n">
-        <v>972</v>
+        <v>1174</v>
       </c>
       <c r="R7" t="n">
-        <v>42830</v>
+        <v>13700</v>
       </c>
       <c r="S7" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8983</v>
+        <v>6407</v>
       </c>
       <c r="C8" t="n">
-        <v>3713</v>
+        <v>4002</v>
       </c>
       <c r="D8" t="n">
-        <v>29322</v>
+        <v>54243</v>
       </c>
       <c r="E8" t="n">
-        <v>10514</v>
+        <v>10568</v>
       </c>
       <c r="F8" t="n">
-        <v>204.643</v>
+        <v>318.842</v>
       </c>
       <c r="G8" t="n">
-        <v>3036.44</v>
+        <v>3226.269</v>
       </c>
       <c r="H8" t="n">
-        <v>94.61799999999999</v>
+        <v>103.186</v>
       </c>
       <c r="I8" t="n">
-        <v>1045.908</v>
+        <v>1069.791</v>
       </c>
       <c r="J8" t="n">
-        <v>208202.5</v>
+        <v>275150.4</v>
       </c>
       <c r="K8" t="n">
-        <v>11737</v>
+        <v>9427</v>
       </c>
       <c r="L8" t="n">
-        <v>21.79537</v>
+        <v>28.25374</v>
       </c>
       <c r="M8" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N8" t="n">
-        <v>3955</v>
+        <v>5086</v>
       </c>
       <c r="O8" t="n">
-        <v>62062</v>
+        <v>27778</v>
       </c>
       <c r="P8" t="n">
-        <v>59.657</v>
+        <v>66.964</v>
       </c>
       <c r="Q8" t="n">
-        <v>1061</v>
+        <v>1195</v>
       </c>
       <c r="R8" t="n">
-        <v>11870</v>
+        <v>13826</v>
       </c>
       <c r="S8" t="n">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="C9" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="D9" t="n">
-        <v>37700</v>
+        <v>73000</v>
       </c>
       <c r="E9" t="n">
-        <v>10522</v>
+        <v>10549</v>
       </c>
       <c r="F9" t="n">
-        <v>264.014</v>
+        <v>402.836</v>
       </c>
       <c r="G9" t="n">
-        <v>3159.557</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100.906</v>
-      </c>
+        <v>3640.83</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>1024.866</v>
+        <v>900.885</v>
       </c>
       <c r="J9" t="n">
-        <v>244040.2</v>
+        <v>304550.7</v>
       </c>
       <c r="K9" t="n">
-        <v>10900</v>
+        <v>21000</v>
       </c>
       <c r="L9" t="n">
-        <v>26.31904</v>
+        <v>30.80221</v>
       </c>
       <c r="M9" t="n">
-        <v>355</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4544</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>25600</v>
-      </c>
-      <c r="P9" t="n">
-        <v>62.807</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>1174</v>
+        <v>1248</v>
       </c>
       <c r="R9" t="n">
-        <v>13700</v>
+        <v>17000</v>
       </c>
       <c r="S9" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6407</v>
+        <v>8000</v>
       </c>
       <c r="C10" t="n">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="D10" t="n">
-        <v>54243</v>
+        <v>81000</v>
       </c>
       <c r="E10" t="n">
-        <v>10568</v>
+        <v>10368</v>
       </c>
       <c r="F10" t="n">
-        <v>318.842</v>
+        <v>484</v>
       </c>
       <c r="G10" t="n">
-        <v>3226.269</v>
+        <v>4828</v>
       </c>
       <c r="H10" t="n">
-        <v>103.186</v>
+        <v>93</v>
       </c>
       <c r="I10" t="n">
-        <v>1069.791</v>
+        <v>1087</v>
       </c>
       <c r="J10" t="n">
-        <v>275150.4</v>
+        <v>315630.4</v>
       </c>
       <c r="K10" t="n">
-        <v>9427</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>28.25374</v>
+        <v>32.14729</v>
       </c>
       <c r="M10" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N10" t="n">
-        <v>5086</v>
+        <v>5322</v>
       </c>
       <c r="O10" t="n">
-        <v>27778</v>
-      </c>
-      <c r="P10" t="n">
-        <v>66.964</v>
-      </c>
+        <v>29000</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="R10" t="n">
-        <v>13826</v>
+        <v>15000</v>
       </c>
       <c r="S10" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1065,223 +1073,168 @@
         <v>4000</v>
       </c>
       <c r="D11" t="n">
-        <v>73000</v>
+        <v>100000</v>
       </c>
       <c r="E11" t="n">
-        <v>10549</v>
+        <v>10166</v>
       </c>
       <c r="F11" t="n">
-        <v>402.836</v>
+        <v>540</v>
       </c>
       <c r="G11" t="n">
-        <v>3640.83</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>5591</v>
+      </c>
+      <c r="H11" t="n">
+        <v>222</v>
+      </c>
       <c r="I11" t="n">
-        <v>900.885</v>
+        <v>1155</v>
       </c>
       <c r="J11" t="n">
-        <v>304550.7</v>
+        <v>329000</v>
       </c>
       <c r="K11" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>30.80221</v>
+        <v>33.3</v>
       </c>
       <c r="M11" t="n">
         <v>359</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>5953</v>
+      </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>1248</v>
+        <v>1156</v>
       </c>
       <c r="R11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="S11" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8000</v>
+        <v>7222</v>
       </c>
       <c r="C12" t="n">
-        <v>4000</v>
+        <v>3563</v>
       </c>
       <c r="D12" t="n">
-        <v>81000</v>
+        <v>51782</v>
       </c>
       <c r="E12" t="n">
-        <v>10368</v>
+        <v>10335</v>
       </c>
       <c r="F12" t="n">
-        <v>484</v>
+        <v>292.05</v>
       </c>
       <c r="G12" t="n">
-        <v>4828</v>
+        <v>5026.52</v>
       </c>
       <c r="H12" t="n">
-        <v>93</v>
+        <v>187.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1087</v>
+        <v>823.77</v>
       </c>
       <c r="J12" t="n">
-        <v>315630.4</v>
+        <v>329841.9</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>11421</v>
       </c>
       <c r="L12" t="n">
-        <v>32.14729</v>
+        <v>32.87255</v>
       </c>
       <c r="M12" t="n">
         <v>359</v>
       </c>
       <c r="N12" t="n">
-        <v>5322</v>
+        <v>3543</v>
       </c>
       <c r="O12" t="n">
-        <v>29000</v>
+        <v>21318</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>1205</v>
+        <v>1247</v>
       </c>
       <c r="R12" t="n">
-        <v>15000</v>
+        <v>9682</v>
       </c>
       <c r="S12" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9000</v>
+        <v>7177</v>
       </c>
       <c r="C13" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="D13" t="n">
-        <v>100000</v>
+        <v>93891</v>
       </c>
       <c r="E13" t="n">
-        <v>10166</v>
+        <v>10399</v>
       </c>
       <c r="F13" t="n">
-        <v>540</v>
+        <v>508.86</v>
       </c>
       <c r="G13" t="n">
-        <v>5591</v>
+        <v>4221.69</v>
       </c>
       <c r="H13" t="n">
-        <v>222</v>
+        <v>101.88</v>
       </c>
       <c r="I13" t="n">
-        <v>1155</v>
+        <v>1188.54</v>
       </c>
       <c r="J13" t="n">
-        <v>329000</v>
+        <v>342916.5</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>11306</v>
       </c>
       <c r="L13" t="n">
-        <v>33.3</v>
+        <v>33.33295</v>
       </c>
       <c r="M13" t="n">
         <v>359</v>
       </c>
       <c r="N13" t="n">
-        <v>5953</v>
+        <v>4921</v>
       </c>
       <c r="O13" t="n">
-        <v>29000</v>
+        <v>26821</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>1156</v>
+        <v>1327</v>
       </c>
       <c r="R13" t="n">
-        <v>14000</v>
+        <v>15508</v>
       </c>
       <c r="S13" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7222</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3563</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51782</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10335</v>
-      </c>
-      <c r="F14" t="n">
-        <v>292.05</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5026.52</v>
-      </c>
-      <c r="H14" t="n">
-        <v>187.67</v>
-      </c>
-      <c r="I14" t="n">
-        <v>823.77</v>
-      </c>
-      <c r="J14" t="n">
-        <v>329841.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11421</v>
-      </c>
-      <c r="L14" t="n">
-        <v>32.87255</v>
-      </c>
-      <c r="M14" t="n">
-        <v>359</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3543</v>
-      </c>
-      <c r="O14" t="n">
-        <v>21318</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>1247</v>
-      </c>
-      <c r="R14" t="n">
-        <v>9682</v>
-      </c>
-      <c r="S14" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
